--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_20-14.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_20-14.xlsx
@@ -164,6 +164,9 @@
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
+    <t xml:space="preserve">EGUNAZ D3 &amp;K2   20CAP  CAPS</t>
+  </si>
+  <si>
     <t>EMPACOZA 25 MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -209,6 +212,9 @@
     <t>IVYROSPAN SYRUP 100 ML</t>
   </si>
   <si>
+    <t>JOINTONEX 30 TABS</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -300,6 +306,9 @@
   </si>
   <si>
     <t>WESTAIR 4 MG 14 SACHETS</t>
+  </si>
+  <si>
+    <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
   </si>
   <si>
     <t>ZETAKARDOVAL 10/160MG 30 F.C. TABS.</t>
@@ -1750,11 +1759,11 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>80</v>
+        <v>57.600000000000001</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1770,17 +1779,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1796,17 +1805,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1822,13 +1831,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>147.5</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1848,17 +1857,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>164</v>
+        <v>147.5</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1874,17 +1883,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1892,7 +1901,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1900,13 +1909,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1918,7 +1927,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1926,13 +1935,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1944,7 +1953,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1952,17 +1961,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1978,13 +1987,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -2004,13 +2013,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -2036,7 +2045,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2056,17 +2065,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2074,7 +2083,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2082,13 +2091,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2100,7 +2109,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2108,17 +2117,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2126,7 +2135,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2134,17 +2143,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2152,7 +2161,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2160,17 +2169,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>64.5</v>
+        <v>15</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2178,7 +2187,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2186,13 +2195,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2212,17 +2221,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>86</v>
+        <v>64.5</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2238,13 +2247,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2264,13 +2273,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2290,13 +2299,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>23.039999999999999</v>
+        <v>31</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2316,17 +2325,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2342,17 +2351,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>188</v>
+        <v>23.039999999999999</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2360,7 +2369,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2368,17 +2377,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2386,7 +2395,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2394,17 +2403,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2420,13 +2429,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2446,17 +2455,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2464,7 +2473,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2472,17 +2481,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2490,7 +2499,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2504,11 +2513,11 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2524,17 +2533,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2550,13 +2559,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2576,17 +2585,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2594,7 +2603,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2602,13 +2611,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2620,7 +2629,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2628,17 +2637,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2646,7 +2655,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2660,7 +2669,7 @@
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2672,7 +2681,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2680,17 +2689,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2706,13 +2715,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>-96</v>
+        <v>98</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2732,13 +2741,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2758,13 +2767,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>-25</v>
+        <v>168</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2776,7 +2785,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2784,13 +2793,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>25</v>
+        <v>-96</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2802,7 +2811,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2810,13 +2819,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>320</v>
+        <v>96</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2828,7 +2837,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2836,13 +2845,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2854,7 +2863,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2862,17 +2871,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2880,7 +2889,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2888,17 +2897,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2906,7 +2915,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2914,13 +2923,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -2932,7 +2941,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2940,17 +2949,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2958,7 +2967,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2966,17 +2975,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -2984,7 +2993,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2992,17 +3001,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3010,7 +3019,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3018,13 +3027,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3036,7 +3045,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3044,13 +3053,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3062,7 +3071,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3070,17 +3079,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3096,51 +3105,129 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="87" ht="26.25" customHeight="1">
-      <c r="K87" s="10">
-        <v>5334.9399999999996</v>
-      </c>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="11">
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="6">
+        <v>84</v>
+      </c>
+      <c t="s" r="B87" s="7">
+        <v>120</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c t="s" r="H87" s="8">
+        <v>23</v>
+      </c>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="9">
+        <v>30</v>
+      </c>
+      <c r="M87" s="9"/>
+      <c t="s" r="N87" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" ht="25.5" customHeight="1">
+      <c r="A88" s="6">
+        <v>85</v>
+      </c>
+      <c t="s" r="B88" s="7">
         <v>121</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c t="s" r="F88" s="12">
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c t="s" r="H88" s="8">
+        <v>74</v>
+      </c>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="9">
+        <v>40</v>
+      </c>
+      <c r="M88" s="9"/>
+      <c t="s" r="N88" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" ht="24.75" customHeight="1">
+      <c r="A89" s="6">
+        <v>86</v>
+      </c>
+      <c t="s" r="B89" s="7">
         <v>122</v>
       </c>
-      <c r="G88" s="12"/>
-      <c r="H88" s="13"/>
-      <c t="s" r="I88" s="14">
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c t="s" r="H89" s="8">
         <v>123</v>
       </c>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="9">
+        <v>65</v>
+      </c>
+      <c r="M89" s="9"/>
+      <c t="s" r="N89" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" ht="26.25" customHeight="1">
+      <c r="K90" s="10">
+        <v>5549.54</v>
+      </c>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="11">
+        <v>124</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c t="s" r="F91" s="12">
+        <v>125</v>
+      </c>
+      <c r="G91" s="12"/>
+      <c r="H91" s="13"/>
+      <c t="s" r="I91" s="14">
+        <v>126</v>
+      </c>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="260">
+  <mergeCells count="269">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3397,10 +3484,19 @@
     <mergeCell ref="B86:G86"/>
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="I88:N88"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="I91:N91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
